--- a/Swapnotory/Excel Files Provided/Swapnotori Member List.xlsx
+++ b/Swapnotory/Excel Files Provided/Swapnotori Member List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Member Detail" sheetId="2" r:id="rId1"/>
@@ -1677,7 +1677,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1788,7 +1788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,15 +1796,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1831,6 +1827,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2141,2641 +2146,2621 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="98.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="86.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="86.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="15">
         <v>44801.393973831015</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>22090001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="15">
         <v>44801.418102581018</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>22090002</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="15">
         <v>45139.732204780092</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>22090003</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="7" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="15">
         <v>44801.444689421296</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>22090004</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="15">
         <v>44801.456510937496</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>22090005</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="15">
         <v>45174.417285752315</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>22090006</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="6"/>
+      <c r="M7" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="7" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="15">
         <v>44801.500152754626</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>22090007</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>1829555190</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>1857360622</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>1857360622</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="15">
         <v>44801.578211793982</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>22090008</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="15">
         <v>45176.473637615738</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>22090009</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="15">
         <v>44801.705074780097</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>22090010</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="15">
         <v>44801.723327592597</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>22090011</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="15">
         <v>44801.731052013885</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>22090012</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="15">
         <v>44801.740684444449</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>22090013</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="15">
         <v>44801.789429861106</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>22090014</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="15">
         <v>45179.663894270838</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>22090015</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="15">
         <v>44801.900654594909</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>22090016</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="15">
         <v>44802.386430416664</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>22090017</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="15">
         <v>44802.74206542824</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>22090018</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="15">
         <v>44802.86211519676</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>22090019</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="15">
         <v>45122.997699305561</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>22090020</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="15">
         <v>44804.822614965276</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>22090021</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="15">
         <v>45179.559002592592</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>22090022</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="15">
         <v>44804.992087986117</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>22090023</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="15">
         <v>44805.52998954861</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>22090024</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="15">
         <v>44806.630206666669</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>22090025</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="15">
         <v>44808.945026840272</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>22090026</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="15">
         <v>44841.460696678245</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>22090027</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="O28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="15">
         <v>44848.767321041669</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>22090028</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="15">
         <v>44849.457977905091</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>22090029</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="O30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="P30" s="6" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7">
-        <v>22090030</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="A31" s="15">
+        <v>44874.844767916671</v>
+      </c>
+      <c r="B31" s="5">
+        <v>22090031</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="P31" s="6">
+        <v>19108386</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>44874.844767916671</v>
-      </c>
-      <c r="B32" s="7">
-        <v>22090031</v>
+      <c r="A32" s="15">
+        <v>44874.846438831017</v>
+      </c>
+      <c r="B32" s="5">
+        <v>22090032</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="4">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8" t="s">
+      <c r="E32" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>44913.706709155093</v>
+      </c>
+      <c r="B33" s="5">
+        <v>22090033</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>44913.838904097225</v>
+      </c>
+      <c r="B34" s="5">
+        <v>22090034</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>44915.820008657407</v>
+      </c>
+      <c r="B35" s="5">
+        <v>22090035</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1737095487</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1730855010</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="P32" s="8">
-        <v>19108386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>44874.846438831017</v>
-      </c>
-      <c r="B33" s="7">
-        <v>22090032</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="M35" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="P35" s="6">
+        <v>1730855010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>44923.268286006947</v>
+      </c>
+      <c r="B36" s="5">
+        <v>22090036</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="L33" s="8" t="s">
+      <c r="E36" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>44928.782069525463</v>
+      </c>
+      <c r="B37" s="5">
+        <v>22090037</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>44931.735017997686</v>
+      </c>
+      <c r="B38" s="5">
+        <v>22090038</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1674068843</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>44934.42951663195</v>
+      </c>
+      <c r="B39" s="5">
+        <v>22090039</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>44935.492917118056</v>
+      </c>
+      <c r="B40" s="5">
+        <v>22090040</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>44935.642214571759</v>
+      </c>
+      <c r="B41" s="5">
+        <v>22090041</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>44935.86348255787</v>
+      </c>
+      <c r="B42" s="5">
+        <v>22090042</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>44938.911993437505</v>
+      </c>
+      <c r="B43" s="5">
+        <v>22090043</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>44939.333763668983</v>
+      </c>
+      <c r="B44" s="5">
+        <v>22090044</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>44913.706709155093</v>
-      </c>
-      <c r="B34" s="7">
-        <v>22090033</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="M44" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>44995.475130868057</v>
+      </c>
+      <c r="B45" s="5">
+        <v>22090045</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="E45" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>44913.838904097225</v>
-      </c>
-      <c r="B35" s="7">
-        <v>22090034</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="M45" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>44942.680219490736</v>
+      </c>
+      <c r="B46" s="5">
+        <v>22090046</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>44943.925034733795</v>
+      </c>
+      <c r="B47" s="5">
+        <v>22090047</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="L35" s="8"/>
-      <c r="M35" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>44915.820008657407</v>
-      </c>
-      <c r="B36" s="7">
-        <v>22090035</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="E47" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>44945.450413379629</v>
+      </c>
+      <c r="B48" s="5">
+        <v>22090048</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="J36" s="8">
-        <v>1737095487</v>
-      </c>
-      <c r="K36" s="8">
-        <v>1730855010</v>
-      </c>
-      <c r="L36" s="8" t="s">
+      <c r="E48" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>44947.527038738423</v>
+      </c>
+      <c r="B49" s="5">
+        <v>22090049</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>44953.734222928237</v>
+      </c>
+      <c r="B50" s="5">
+        <v>22090050</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="P50" s="6">
+        <v>1916315147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>44968.777845763892</v>
+      </c>
+      <c r="B51" s="5">
+        <v>22090051</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>44986.995449837967</v>
+      </c>
+      <c r="B52" s="5">
+        <v>22090052</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="P36" s="8">
-        <v>1730855010</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>44923.268286006947</v>
-      </c>
-      <c r="B37" s="7">
-        <v>22090036</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>44928.782069525463</v>
-      </c>
-      <c r="B38" s="7">
-        <v>22090037</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="P38" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>44931.735017997686</v>
-      </c>
-      <c r="B39" s="7">
-        <v>22090038</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="K39" s="8">
-        <v>1674068843</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="O39" s="8" t="s">
+      <c r="M52" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="P39" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>44934.42951663195</v>
-      </c>
-      <c r="B40" s="7">
-        <v>22090039</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="P40" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>44935.492917118056</v>
-      </c>
-      <c r="B41" s="7">
-        <v>22090040</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P41" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>44935.642214571759</v>
-      </c>
-      <c r="B42" s="7">
-        <v>22090041</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P42" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>44935.86348255787</v>
-      </c>
-      <c r="B43" s="7">
-        <v>22090042</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P43" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>44938.911993437505</v>
-      </c>
-      <c r="B44" s="7">
-        <v>22090043</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="P44" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>44939.333763668983</v>
-      </c>
-      <c r="B45" s="7">
-        <v>22090044</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>44995.475130868057</v>
-      </c>
-      <c r="B46" s="7">
-        <v>22090045</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>44942.680219490736</v>
-      </c>
-      <c r="B47" s="7">
-        <v>22090046</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="4">
-        <v>2</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>44943.925034733795</v>
-      </c>
-      <c r="B48" s="7">
-        <v>22090047</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>44945.450413379629</v>
-      </c>
-      <c r="B49" s="7">
-        <v>22090048</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>44947.527038738423</v>
-      </c>
-      <c r="B50" s="7">
-        <v>22090049</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>44953.734222928237</v>
-      </c>
-      <c r="B51" s="7">
-        <v>22090050</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="P51" s="8">
-        <v>1916315147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>44968.777845763892</v>
-      </c>
-      <c r="B52" s="7">
-        <v>22090051</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>44986.995449837967</v>
-      </c>
-      <c r="B53" s="7">
-        <v>22090052</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P53" s="9" t="s">
+      <c r="P52" s="7" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4804,34 +4789,34 @@
     <hyperlink ref="G28" r:id="rId21"/>
     <hyperlink ref="G29" r:id="rId22"/>
     <hyperlink ref="G30" r:id="rId23"/>
-    <hyperlink ref="G32" r:id="rId24"/>
-    <hyperlink ref="G33" r:id="rId25"/>
-    <hyperlink ref="G34" r:id="rId26"/>
-    <hyperlink ref="G35" r:id="rId27"/>
-    <hyperlink ref="G36" r:id="rId28"/>
-    <hyperlink ref="G37" r:id="rId29"/>
-    <hyperlink ref="G38" r:id="rId30"/>
-    <hyperlink ref="G39" r:id="rId31"/>
-    <hyperlink ref="G40" r:id="rId32"/>
-    <hyperlink ref="G41" r:id="rId33"/>
-    <hyperlink ref="G42" r:id="rId34"/>
-    <hyperlink ref="G43" r:id="rId35"/>
-    <hyperlink ref="G44" r:id="rId36"/>
-    <hyperlink ref="G45" r:id="rId37"/>
-    <hyperlink ref="G47" r:id="rId38"/>
-    <hyperlink ref="G48" r:id="rId39"/>
-    <hyperlink ref="G49" r:id="rId40"/>
-    <hyperlink ref="G50" r:id="rId41"/>
-    <hyperlink ref="G51" r:id="rId42"/>
-    <hyperlink ref="G52" r:id="rId43"/>
-    <hyperlink ref="G53" r:id="rId44"/>
+    <hyperlink ref="G31" r:id="rId24"/>
+    <hyperlink ref="G32" r:id="rId25"/>
+    <hyperlink ref="G33" r:id="rId26"/>
+    <hyperlink ref="G34" r:id="rId27"/>
+    <hyperlink ref="G35" r:id="rId28"/>
+    <hyperlink ref="G36" r:id="rId29"/>
+    <hyperlink ref="G37" r:id="rId30"/>
+    <hyperlink ref="G38" r:id="rId31"/>
+    <hyperlink ref="G39" r:id="rId32"/>
+    <hyperlink ref="G40" r:id="rId33"/>
+    <hyperlink ref="G41" r:id="rId34"/>
+    <hyperlink ref="G42" r:id="rId35"/>
+    <hyperlink ref="G43" r:id="rId36"/>
+    <hyperlink ref="G44" r:id="rId37"/>
+    <hyperlink ref="G46" r:id="rId38"/>
+    <hyperlink ref="G47" r:id="rId39"/>
+    <hyperlink ref="G48" r:id="rId40"/>
+    <hyperlink ref="G49" r:id="rId41"/>
+    <hyperlink ref="G50" r:id="rId42"/>
+    <hyperlink ref="G51" r:id="rId43"/>
+    <hyperlink ref="G52" r:id="rId44"/>
     <hyperlink ref="G4" r:id="rId45"/>
     <hyperlink ref="G7" r:id="rId46"/>
     <hyperlink ref="G10" r:id="rId47"/>
     <hyperlink ref="G16" r:id="rId48"/>
     <hyperlink ref="G21" r:id="rId49"/>
     <hyperlink ref="G23" r:id="rId50"/>
-    <hyperlink ref="G46" r:id="rId51"/>
+    <hyperlink ref="G45" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId52"/>
